--- a/biology/Zoologie/Encyocrypta_kottae/Encyocrypta_kottae.xlsx
+++ b/biology/Zoologie/Encyocrypta_kottae/Encyocrypta_kottae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta kottae est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta kottae est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers la Roche Percée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers la Roche Percée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Patricia Kott[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Patricia Kott.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
